--- a/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,122 +534,122 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H2">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I2">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J2">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>5.4690541859018</v>
+        <v>0.0191995</v>
       </c>
       <c r="N2">
-        <v>5.4690541859018</v>
+        <v>0.038399</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.002780311579676609</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.002767389187860387</v>
       </c>
       <c r="Q2">
-        <v>24.50880758717447</v>
+        <v>0.0863082611305</v>
       </c>
       <c r="R2">
-        <v>24.50880758717447</v>
+        <v>0.345233044522</v>
       </c>
       <c r="S2">
-        <v>0.1375270345602936</v>
+        <v>0.000354241272673421</v>
       </c>
       <c r="T2">
-        <v>0.1375270345602936</v>
+        <v>0.0002686879899756977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.416662286917729</v>
+        <v>4.495339</v>
       </c>
       <c r="H3">
-        <v>0.416662286917729</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I3">
-        <v>0.01278681305501845</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J3">
-        <v>0.01278681305501845</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.4690541859018</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="N3">
-        <v>5.4690541859018</v>
+        <v>0.193473</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.009339049146327988</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01394346436998132</v>
       </c>
       <c r="Q3">
-        <v>2.278748624374822</v>
+        <v>0.289908907449</v>
       </c>
       <c r="R3">
-        <v>2.278748624374822</v>
+        <v>1.739453444694</v>
       </c>
       <c r="S3">
-        <v>0.01278681305501845</v>
+        <v>0.001189894211619136</v>
       </c>
       <c r="T3">
-        <v>0.01278681305501845</v>
+        <v>0.00135378190798115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.76524644466899</v>
+        <v>4.495339</v>
       </c>
       <c r="H4">
-        <v>6.76524644466899</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I4">
-        <v>0.2076164420808054</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J4">
-        <v>0.2076164420808054</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.4690541859018</v>
+        <v>6.821830500000001</v>
       </c>
       <c r="N4">
-        <v>5.4690541859018</v>
+        <v>13.643661</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9878806392739954</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9832891464421584</v>
       </c>
       <c r="Q4">
-        <v>36.99949938687421</v>
+        <v>30.6664406980395</v>
       </c>
       <c r="R4">
-        <v>36.99949938687421</v>
+        <v>122.665762792158</v>
       </c>
       <c r="S4">
-        <v>0.2076164420808054</v>
+        <v>0.125866502684047</v>
       </c>
       <c r="T4">
-        <v>0.2076164420808054</v>
+        <v>0.09546831558113018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.039248735204421</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H5">
-        <v>8.039248735204421</v>
+        <v>1.389289</v>
       </c>
       <c r="I5">
-        <v>0.246713882939326</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J5">
-        <v>0.246713882939326</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>5.4690541859018</v>
+        <v>0.0191995</v>
       </c>
       <c r="N5">
-        <v>5.4690541859018</v>
+        <v>0.038399</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.002780311579676609</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.002767389187860387</v>
       </c>
       <c r="Q5">
-        <v>43.96708694677548</v>
+        <v>0.008891218051833334</v>
       </c>
       <c r="R5">
-        <v>43.96708694677548</v>
+        <v>0.05334730831100001</v>
       </c>
       <c r="S5">
-        <v>0.246713882939326</v>
+        <v>3.649287283793165E-05</v>
       </c>
       <c r="T5">
-        <v>0.246713882939326</v>
+        <v>4.151914559784559E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.01152113025883</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H6">
-        <v>6.01152113025883</v>
+        <v>1.389289</v>
       </c>
       <c r="I6">
-        <v>0.1844856116869792</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J6">
-        <v>0.1844856116869792</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.4690541859018</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="N6">
-        <v>5.4690541859018</v>
+        <v>0.193473</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.009339049146327988</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.01394346436998132</v>
       </c>
       <c r="Q6">
-        <v>32.87733480107917</v>
+        <v>0.029865545633</v>
       </c>
       <c r="R6">
-        <v>32.87733480107917</v>
+        <v>0.268789910697</v>
       </c>
       <c r="S6">
-        <v>0.1844856116869792</v>
+        <v>0.0001225793308258575</v>
       </c>
       <c r="T6">
-        <v>0.1844856116869792</v>
+        <v>0.0002091938242207343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,796 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.87127167097911</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H7">
-        <v>6.87127167097911</v>
+        <v>1.389289</v>
       </c>
       <c r="I7">
-        <v>0.2108702156775774</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J7">
-        <v>0.2108702156775774</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.4690541859018</v>
+        <v>6.821830500000001</v>
       </c>
       <c r="N7">
-        <v>5.4690541859018</v>
+        <v>13.643661</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.9878806392739954</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9832891464421584</v>
       </c>
       <c r="Q7">
-        <v>37.57935709463676</v>
+        <v>3.159164691171501</v>
       </c>
       <c r="R7">
-        <v>37.57935709463676</v>
+        <v>18.954988147029</v>
       </c>
       <c r="S7">
-        <v>0.2108702156775774</v>
+        <v>0.01296638938297475</v>
       </c>
       <c r="T7">
-        <v>0.2108702156775774</v>
+        <v>0.0147522890582215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.798299666666666</v>
+      </c>
+      <c r="H8">
+        <v>20.394899</v>
+      </c>
+      <c r="I8">
+        <v>0.1926830655017586</v>
+      </c>
+      <c r="J8">
+        <v>0.2202455436260365</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.0191995</v>
+      </c>
+      <c r="N8">
+        <v>0.038399</v>
+      </c>
+      <c r="O8">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P8">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q8">
+        <v>0.1305239544501667</v>
+      </c>
+      <c r="R8">
+        <v>0.783143726701</v>
+      </c>
+      <c r="S8">
+        <v>0.0005357189582221261</v>
+      </c>
+      <c r="T8">
+        <v>0.0006095051361051266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.798299666666666</v>
+      </c>
+      <c r="H9">
+        <v>20.394899</v>
+      </c>
+      <c r="I9">
+        <v>0.1926830655017586</v>
+      </c>
+      <c r="J9">
+        <v>0.2202455436260365</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.193473</v>
+      </c>
+      <c r="O9">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P9">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q9">
+        <v>0.438429143803</v>
+      </c>
+      <c r="R9">
+        <v>3.945862294227</v>
+      </c>
+      <c r="S9">
+        <v>0.001799476618386059</v>
+      </c>
+      <c r="T9">
+        <v>0.003070985890196806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.798299666666666</v>
+      </c>
+      <c r="H10">
+        <v>20.394899</v>
+      </c>
+      <c r="I10">
+        <v>0.1926830655017586</v>
+      </c>
+      <c r="J10">
+        <v>0.2202455436260365</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N10">
+        <v>13.643661</v>
+      </c>
+      <c r="O10">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P10">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q10">
+        <v>46.3768480142065</v>
+      </c>
+      <c r="R10">
+        <v>278.261088085239</v>
+      </c>
+      <c r="S10">
+        <v>0.1903478699251504</v>
+      </c>
+      <c r="T10">
+        <v>0.2165650525997346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.495531999999999</v>
+      </c>
+      <c r="H11">
+        <v>25.486596</v>
+      </c>
+      <c r="I11">
+        <v>0.2407874364312792</v>
+      </c>
+      <c r="J11">
+        <v>0.275231036505607</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0191995</v>
+      </c>
+      <c r="N11">
+        <v>0.038399</v>
+      </c>
+      <c r="O11">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P11">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q11">
+        <v>0.163109966634</v>
+      </c>
+      <c r="R11">
+        <v>0.978659799804</v>
+      </c>
+      <c r="S11">
+        <v>0.0006694640977505309</v>
+      </c>
+      <c r="T11">
+        <v>0.0007616713945892244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.495531999999999</v>
+      </c>
+      <c r="H12">
+        <v>25.486596</v>
+      </c>
+      <c r="I12">
+        <v>0.2407874364312792</v>
+      </c>
+      <c r="J12">
+        <v>0.275231036505607</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.193473</v>
+      </c>
+      <c r="O12">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P12">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q12">
+        <v>0.547885354212</v>
+      </c>
+      <c r="R12">
+        <v>4.930968187908</v>
+      </c>
+      <c r="S12">
+        <v>0.002248725702650042</v>
+      </c>
+      <c r="T12">
+        <v>0.003837674151028959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.495531999999999</v>
+      </c>
+      <c r="H13">
+        <v>25.486596</v>
+      </c>
+      <c r="I13">
+        <v>0.2407874364312792</v>
+      </c>
+      <c r="J13">
+        <v>0.275231036505607</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N13">
+        <v>13.643661</v>
+      </c>
+      <c r="O13">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P13">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q13">
+        <v>57.955079311326</v>
+      </c>
+      <c r="R13">
+        <v>347.730475867956</v>
+      </c>
+      <c r="S13">
+        <v>0.2378692466308786</v>
+      </c>
+      <c r="T13">
+        <v>0.2706316909599888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H14">
+        <v>18.837682</v>
+      </c>
+      <c r="I14">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J14">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0191995</v>
+      </c>
+      <c r="N14">
+        <v>0.038399</v>
+      </c>
+      <c r="O14">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P14">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q14">
+        <v>0.1205580251863334</v>
+      </c>
+      <c r="R14">
+        <v>0.7233481511180001</v>
+      </c>
+      <c r="S14">
+        <v>0.0004948150700015577</v>
+      </c>
+      <c r="T14">
+        <v>0.000562967432754391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H15">
+        <v>18.837682</v>
+      </c>
+      <c r="I15">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J15">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.193473</v>
+      </c>
+      <c r="O15">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P15">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q15">
+        <v>0.4049536499540001</v>
+      </c>
+      <c r="R15">
+        <v>3.644582849586</v>
+      </c>
+      <c r="S15">
+        <v>0.001662080714574362</v>
+      </c>
+      <c r="T15">
+        <v>0.002836506109984382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H16">
+        <v>18.837682</v>
+      </c>
+      <c r="I16">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J16">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N16">
+        <v>13.643661</v>
+      </c>
+      <c r="O16">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P16">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q16">
+        <v>42.83582453896701</v>
+      </c>
+      <c r="R16">
+        <v>257.014947233802</v>
+      </c>
+      <c r="S16">
+        <v>0.1758141897651637</v>
+      </c>
+      <c r="T16">
+        <v>0.2000296051079769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.750795</v>
+      </c>
+      <c r="H17">
+        <v>17.50159</v>
+      </c>
+      <c r="I17">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J17">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.0191995</v>
+      </c>
+      <c r="N17">
+        <v>0.038399</v>
+      </c>
+      <c r="O17">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P17">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q17">
+        <v>0.1680108886025</v>
+      </c>
+      <c r="R17">
+        <v>0.6720435544100001</v>
+      </c>
+      <c r="S17">
+        <v>0.0006895793081910419</v>
+      </c>
+      <c r="T17">
+        <v>0.0005230380888381023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.750795</v>
+      </c>
+      <c r="H18">
+        <v>17.50159</v>
+      </c>
+      <c r="I18">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J18">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.193473</v>
+      </c>
+      <c r="O18">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P18">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q18">
+        <v>0.564347520345</v>
+      </c>
+      <c r="R18">
+        <v>3.38608512207</v>
+      </c>
+      <c r="S18">
+        <v>0.002316292568272532</v>
+      </c>
+      <c r="T18">
+        <v>0.00263532248656929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.750795</v>
+      </c>
+      <c r="H19">
+        <v>17.50159</v>
+      </c>
+      <c r="I19">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J19">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N19">
+        <v>13.643661</v>
+      </c>
+      <c r="O19">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P19">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q19">
+        <v>59.69644023024751</v>
+      </c>
+      <c r="R19">
+        <v>238.78576092099</v>
+      </c>
+      <c r="S19">
+        <v>0.2450164408857808</v>
+      </c>
+      <c r="T19">
+        <v>0.1858421931351064</v>
       </c>
     </row>
   </sheetData>
